--- a/Excel/镇魂街/nsActivity.新服活动.xlsx
+++ b/Excel/镇魂街/nsActivity.新服活动.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="68">
   <si>
     <t>sheet名</t>
   </si>
@@ -111,14 +111,6 @@
     <t>奖励数量3</t>
   </si>
   <si>
-    <t>RowId</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>行ID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>金币</t>
   </si>
   <si>
@@ -166,18 +158,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>int:&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>RowId</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>RowId</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>ID</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -214,26 +194,6 @@
   </si>
   <si>
     <t>在线礼包</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>level_gift.lua2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>online_gift</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>.lua2</t>
-    </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -287,11 +247,59 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>seven_day_gift.lua2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>seven_day_gift.txt</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级神器2配件6</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级神器3配件6</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Award[1].id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Award[2].id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Award[2].val</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Award[3].id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Award[3].val</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>level_gift.lua</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>online_gift</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.lua</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>seven_day_gift.lua</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -805,7 +813,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -847,20 +855,20 @@
     </row>
     <row r="2" spans="1:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G2" s="3" t="b">
         <v>1</v>
@@ -869,20 +877,18 @@
     </row>
     <row r="3" spans="1:8" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="4" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="E3" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4" t="s">
         <v>41</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>46</v>
       </c>
       <c r="G3" s="3" t="b">
         <v>1</v>
@@ -891,20 +897,20 @@
     </row>
     <row r="4" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="4" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="G4" s="3" t="b">
         <v>1</v>
@@ -913,20 +919,18 @@
     </row>
     <row r="5" spans="1:8" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="4" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>41</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="E5" s="4"/>
       <c r="F5" s="4" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="G5" s="3" t="b">
         <v>1</v>
@@ -935,20 +939,20 @@
     </row>
     <row r="6" spans="1:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="4" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="G6" s="3" t="b">
         <v>1</v>
@@ -956,20 +960,18 @@
     </row>
     <row r="7" spans="1:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="4" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>41</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="E7" s="4"/>
       <c r="F7" s="4" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="G7" s="3" t="b">
         <v>1</v>
@@ -987,290 +989,260 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="7" width="13.625" customWidth="1"/>
-    <col min="8" max="8" width="19" customWidth="1"/>
-    <col min="9" max="9" width="13.625" customWidth="1"/>
+    <col min="3" max="6" width="13.625" customWidth="1"/>
+    <col min="7" max="7" width="19" customWidth="1"/>
+    <col min="8" max="8" width="13.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
         <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" t="s">
         <v>28</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>29</v>
       </c>
-      <c r="F2" t="s">
-        <v>30</v>
-      </c>
       <c r="G2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H2" t="s">
         <v>30</v>
       </c>
-      <c r="I2" t="s">
+    </row>
+    <row r="3" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
+        <v>101</v>
+      </c>
+      <c r="B4" s="3">
+        <v>5</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+      <c r="F4" s="3">
+        <v>50</v>
+      </c>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+    </row>
+    <row r="5" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
+        <v>102</v>
+      </c>
+      <c r="B5" s="3">
+        <v>10</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="D5" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="3">
+        <v>50</v>
+      </c>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+    </row>
+    <row r="6" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
+        <v>103</v>
+      </c>
+      <c r="B6" s="3">
+        <v>20</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="3">
+        <v>50</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H6" s="3">
         <v>10</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="3">
-        <v>1</v>
-      </c>
-      <c r="B4" s="3">
-        <v>101</v>
-      </c>
-      <c r="C4" s="3">
-        <v>5</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" s="3">
-        <v>1000</v>
-      </c>
-      <c r="F4" s="3" t="s">
+    </row>
+    <row r="7" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
+        <v>104</v>
+      </c>
+      <c r="B7" s="3">
+        <v>30</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="3">
+        <v>50</v>
+      </c>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+    </row>
+    <row r="8" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
+        <v>105</v>
+      </c>
+      <c r="B8" s="3">
+        <v>40</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="3">
+        <v>50</v>
+      </c>
+      <c r="G8" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G4" s="3">
-        <v>50</v>
-      </c>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-    </row>
-    <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="3">
-        <v>2</v>
-      </c>
-      <c r="B5" s="3">
-        <v>102</v>
-      </c>
-      <c r="C5" s="3">
+      <c r="H8" s="3">
         <v>10</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" s="3">
-        <v>1000</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G5" s="3">
-        <v>50</v>
-      </c>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-    </row>
-    <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="3">
-        <v>3</v>
-      </c>
-      <c r="B6" s="3">
-        <v>103</v>
-      </c>
-      <c r="C6" s="3">
-        <v>20</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" s="3">
-        <v>1000</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G6" s="3">
-        <v>50</v>
-      </c>
-      <c r="H6" s="3" t="s">
+    </row>
+    <row r="9" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
+        <v>106</v>
+      </c>
+      <c r="B9" s="3">
+        <v>50</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="3">
+        <v>50</v>
+      </c>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+    </row>
+    <row r="10" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>107</v>
+      </c>
+      <c r="B10" s="3">
+        <v>60</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="3">
+        <v>50</v>
+      </c>
+      <c r="G10" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="I6" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="3">
-        <v>4</v>
-      </c>
-      <c r="B7" s="3">
-        <v>104</v>
-      </c>
-      <c r="C7" s="3">
-        <v>30</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" s="3">
-        <v>1000</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G7" s="3">
-        <v>50</v>
-      </c>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-    </row>
-    <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="3">
-        <v>5</v>
-      </c>
-      <c r="B8" s="3">
-        <v>105</v>
-      </c>
-      <c r="C8" s="3">
-        <v>40</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" s="3">
-        <v>1000</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G8" s="3">
-        <v>50</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="I8" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="3">
-        <v>6</v>
-      </c>
-      <c r="B9" s="3">
-        <v>106</v>
-      </c>
-      <c r="C9" s="3">
-        <v>50</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" s="3">
-        <v>1000</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G9" s="3">
-        <v>50</v>
-      </c>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-    </row>
-    <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="3">
-        <v>7</v>
-      </c>
-      <c r="B10" s="3">
-        <v>107</v>
-      </c>
-      <c r="C10" s="3">
-        <v>60</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" s="3">
-        <v>1000</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G10" s="3">
-        <v>50</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="I10" s="3">
+      <c r="H10" s="3">
         <v>10</v>
       </c>
     </row>
@@ -1282,323 +1254,290 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="12.375" customWidth="1"/>
-    <col min="4" max="4" width="13.375" customWidth="1"/>
-    <col min="5" max="5" width="12.5" customWidth="1"/>
-    <col min="6" max="6" width="13.625" customWidth="1"/>
-    <col min="7" max="7" width="13.375" customWidth="1"/>
-    <col min="8" max="8" width="16.25" customWidth="1"/>
-    <col min="9" max="9" width="15.25" customWidth="1"/>
+    <col min="2" max="2" width="12.375" customWidth="1"/>
+    <col min="3" max="3" width="13.375" customWidth="1"/>
+    <col min="4" max="4" width="12.5" customWidth="1"/>
+    <col min="5" max="5" width="13.625" customWidth="1"/>
+    <col min="6" max="6" width="13.375" customWidth="1"/>
+    <col min="7" max="7" width="16.25" customWidth="1"/>
+    <col min="8" max="8" width="15.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>42</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
         <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" t="s">
         <v>28</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>29</v>
       </c>
-      <c r="F2" t="s">
-        <v>30</v>
-      </c>
       <c r="G2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H2" t="s">
         <v>30</v>
       </c>
-      <c r="I2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
+        <v>201</v>
+      </c>
+      <c r="B4" s="3">
+        <v>5</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="3">
+        <v>50</v>
+      </c>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+    </row>
+    <row r="5" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
+        <v>202</v>
+      </c>
+      <c r="B5" s="3">
+        <v>10</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="3">
+        <v>50</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H5" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
+        <v>203</v>
+      </c>
+      <c r="B6" s="3">
         <v>15</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="3">
-        <v>1</v>
-      </c>
-      <c r="B4" s="3">
-        <v>201</v>
-      </c>
-      <c r="C4" s="3">
-        <v>5</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="3">
-        <v>1000</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G4" s="3">
-        <v>50</v>
-      </c>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-    </row>
-    <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="3">
-        <v>2</v>
-      </c>
-      <c r="B5" s="3">
-        <v>202</v>
-      </c>
-      <c r="C5" s="3">
+      <c r="C6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="3">
+        <v>50</v>
+      </c>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+    </row>
+    <row r="7" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
+        <v>204</v>
+      </c>
+      <c r="B7" s="3">
+        <v>30</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="3">
+        <v>50</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H7" s="3">
         <v>10</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" s="3">
-        <v>1000</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G5" s="3">
-        <v>50</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="I5" s="3">
+    </row>
+    <row r="8" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
+        <v>205</v>
+      </c>
+      <c r="B8" s="3">
+        <v>45</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="3">
+        <v>50</v>
+      </c>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+    </row>
+    <row r="9" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
+        <v>206</v>
+      </c>
+      <c r="B9" s="3">
+        <v>60</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="3">
+        <v>50</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H9" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="3">
-        <v>3</v>
-      </c>
-      <c r="B6" s="3">
-        <v>203</v>
-      </c>
-      <c r="C6" s="3">
-        <v>15</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="3">
-        <v>1000</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G6" s="3">
-        <v>50</v>
-      </c>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-    </row>
-    <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="3">
-        <v>4</v>
-      </c>
-      <c r="B7" s="3">
-        <v>204</v>
-      </c>
-      <c r="C7" s="3">
-        <v>30</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" s="3">
-        <v>1000</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G7" s="3">
-        <v>50</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="I7" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="3">
-        <v>5</v>
-      </c>
-      <c r="B8" s="3">
-        <v>205</v>
-      </c>
-      <c r="C8" s="3">
+    <row r="10" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>207</v>
+      </c>
+      <c r="B10" s="3">
+        <v>90</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="3">
+        <v>50</v>
+      </c>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+    </row>
+    <row r="11" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>208</v>
+      </c>
+      <c r="B11" s="3">
+        <v>120</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" s="3">
+        <v>50</v>
+      </c>
+      <c r="G11" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" s="3">
-        <v>1000</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G8" s="3">
-        <v>50</v>
-      </c>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-    </row>
-    <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="3">
-        <v>6</v>
-      </c>
-      <c r="B9" s="3">
-        <v>206</v>
-      </c>
-      <c r="C9" s="3">
-        <v>60</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" s="3">
-        <v>1000</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G9" s="3">
-        <v>50</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="I9" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="3">
-        <v>7</v>
-      </c>
-      <c r="B10" s="3">
-        <v>207</v>
-      </c>
-      <c r="C10" s="3">
-        <v>90</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" s="3">
-        <v>1000</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G10" s="3">
-        <v>50</v>
-      </c>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-    </row>
-    <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="3">
-        <v>8</v>
-      </c>
-      <c r="B11" s="3">
-        <v>208</v>
-      </c>
-      <c r="C11" s="3">
-        <v>120</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" s="3">
-        <v>1000</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G11" s="3">
-        <v>50</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="I11" s="3">
+      <c r="H11" s="3">
         <v>10</v>
       </c>
     </row>
@@ -1610,296 +1549,274 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="6" width="12.625" customWidth="1"/>
-    <col min="7" max="7" width="12.875" customWidth="1"/>
-    <col min="8" max="8" width="16.5" customWidth="1"/>
-    <col min="9" max="9" width="14" customWidth="1"/>
+    <col min="3" max="3" width="16.5" customWidth="1"/>
+    <col min="4" max="4" width="14" customWidth="1"/>
+    <col min="5" max="7" width="12.625" customWidth="1"/>
+    <col min="8" max="8" width="12.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>17</v>
+        <v>63</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
         <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" t="s">
         <v>28</v>
       </c>
-      <c r="E2" t="s">
+      <c r="H2" t="s">
         <v>29</v>
       </c>
-      <c r="F2" t="s">
+    </row>
+    <row r="3" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
+        <v>301</v>
+      </c>
+      <c r="B4" s="3">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="3">
+        <v>100</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+    </row>
+    <row r="5" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
+        <v>302</v>
+      </c>
+      <c r="B5" s="3">
+        <v>2</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" s="3">
         <v>30</v>
       </c>
-      <c r="G2" t="s">
+      <c r="E5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G5" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H5" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
+        <v>303</v>
+      </c>
+      <c r="B6" s="3">
+        <v>3</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" s="3">
         <v>30</v>
       </c>
-      <c r="I2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="3">
+      <c r="E6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
+        <v>304</v>
+      </c>
+      <c r="B7" s="3">
+        <v>4</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" s="3">
         <v>1</v>
       </c>
-      <c r="B4" s="3">
-        <v>301</v>
-      </c>
-      <c r="C4" s="3">
+      <c r="E7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H7" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
+        <v>305</v>
+      </c>
+      <c r="B8" s="3">
+        <v>5</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" s="3">
+        <v>30</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H8" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
+        <v>306</v>
+      </c>
+      <c r="B9" s="3">
+        <v>6</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D9" s="3">
         <v>1</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="3">
-        <v>1000</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G4" s="3">
-        <v>50</v>
-      </c>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-    </row>
-    <row r="5" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="3">
-        <v>2</v>
-      </c>
-      <c r="B5" s="3">
-        <v>302</v>
-      </c>
-      <c r="C5" s="3">
-        <v>2</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" s="3">
-        <v>1000</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G5" s="3">
-        <v>50</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="I5" s="3">
+      <c r="E9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H9" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>307</v>
+      </c>
+      <c r="B10" s="3">
+        <v>7</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" s="3">
         <v>30</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="3">
-        <v>3</v>
-      </c>
-      <c r="B6" s="3">
-        <v>303</v>
-      </c>
-      <c r="C6" s="3">
-        <v>3</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="3">
-        <v>1000</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G6" s="3">
-        <v>50</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="I6" s="3">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="3">
-        <v>4</v>
-      </c>
-      <c r="B7" s="3">
-        <v>304</v>
-      </c>
-      <c r="C7" s="3">
-        <v>4</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" s="3">
-        <v>1000</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G7" s="3">
-        <v>50</v>
-      </c>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-    </row>
-    <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="3">
-        <v>5</v>
-      </c>
-      <c r="B8" s="3">
-        <v>305</v>
-      </c>
-      <c r="C8" s="3">
-        <v>5</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" s="3">
-        <v>1000</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G8" s="3">
-        <v>50</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="I8" s="3">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="3">
-        <v>6</v>
-      </c>
-      <c r="B9" s="3">
-        <v>306</v>
-      </c>
-      <c r="C9" s="3">
-        <v>6</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" s="3">
-        <v>1000</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G9" s="3">
-        <v>50</v>
-      </c>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-    </row>
-    <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="3">
-        <v>7</v>
-      </c>
-      <c r="B10" s="3">
-        <v>307</v>
-      </c>
-      <c r="C10" s="3">
-        <v>7</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" s="3">
-        <v>1000</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G10" s="3">
-        <v>50</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="I10" s="3">
-        <v>30</v>
+      <c r="E10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H10" s="3">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/镇魂街/nsActivity.新服活动.xlsx
+++ b/Excel/镇魂街/nsActivity.新服活动.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ZHJcehua\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WORK\CeHua\trunk\ZHJStaffSpace\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9CCC61A-33A2-41EC-900A-AC84E1F76261}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -19,12 +18,12 @@
     <sheet name="在线礼包" sheetId="27" r:id="rId4"/>
     <sheet name="七日礼包" sheetId="28" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="74">
   <si>
     <t>sheet名</t>
   </si>
@@ -223,25 +222,10 @@
     <t>时间</t>
   </si>
   <si>
-    <t>许褚碎片</t>
-  </si>
-  <si>
     <t>Day</t>
   </si>
   <si>
-    <t>唐流雨碎片</t>
-  </si>
-  <si>
-    <t>战斗夏玲碎片</t>
-  </si>
-  <si>
-    <t>高级神器2配件6</t>
-  </si>
-  <si>
     <t>战斗曹焱兵碎片</t>
-  </si>
-  <si>
-    <t>高级神器3配件6</t>
   </si>
   <si>
     <t>刘羽禅碎片</t>
@@ -276,27 +260,7 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>暴雨梨花</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>战斗夏玲</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>神器威力</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>主角光环</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>神秘寄灵人</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>第三神器</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
@@ -306,11 +270,55 @@
     <t>鸡和马</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
+  <si>
+    <t>已累计：%d</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>寄灵人抽卡券</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>守护灵抽卡券</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>虎痴护卫</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>许褚碎片</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗夏玲</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗夏玲碎片</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>许褚专属武器碎片</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>专属武器</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>神器高级材料</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>神器进阶</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -523,19 +531,19 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="13">
-    <cellStyle name="Grid" xfId="4" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="Normal" xfId="7" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Grid" xfId="4"/>
+    <cellStyle name="Normal" xfId="7"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="超链接 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="大标题" xfId="6" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="横向标题" xfId="1" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="文本" xfId="10" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
-    <cellStyle name="无效" xfId="11" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
-    <cellStyle name="因变Grid" xfId="3" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
-    <cellStyle name="英文标题" xfId="2" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
-    <cellStyle name="中文标题" xfId="12" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
-    <cellStyle name="纵向标题" xfId="5" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="常规 2" xfId="8"/>
+    <cellStyle name="超链接 2" xfId="9"/>
+    <cellStyle name="大标题" xfId="6"/>
+    <cellStyle name="横向标题" xfId="1"/>
+    <cellStyle name="文本" xfId="10"/>
+    <cellStyle name="无效" xfId="11"/>
+    <cellStyle name="因变Grid" xfId="3"/>
+    <cellStyle name="英文标题" xfId="2"/>
+    <cellStyle name="中文标题" xfId="12"/>
+    <cellStyle name="纵向标题" xfId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -807,7 +815,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -977,7 +985,7 @@
     </row>
     <row r="8" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3" t="s">
@@ -1002,10 +1010,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2003"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
@@ -17035,7 +17043,7 @@
         <v>2000</v>
       </c>
       <c r="B2003" s="3" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -17045,7 +17053,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -17310,11 +17318,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -17448,10 +17456,10 @@
         <v>50</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="H5" s="3">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
@@ -17496,10 +17504,10 @@
         <v>50</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="H7" s="3">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
@@ -17544,10 +17552,10 @@
         <v>50</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="H9" s="3">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
@@ -17592,10 +17600,10 @@
         <v>50</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="H11" s="3">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -17605,17 +17613,17 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="12.625" customWidth="1"/>
-    <col min="4" max="4" width="16.5" customWidth="1"/>
+    <col min="4" max="4" width="17" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
     <col min="6" max="8" width="12.625" customWidth="1"/>
     <col min="9" max="9" width="12.875" customWidth="1"/>
@@ -17626,10 +17634,10 @@
         <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>30</v>
@@ -17658,7 +17666,7 @@
         <v>26</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D2" t="s">
         <v>36</v>
@@ -17687,7 +17695,7 @@
         <v>52</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>44</v>
@@ -17716,7 +17724,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>47</v>
@@ -17741,10 +17749,10 @@
         <v>2</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="E5" s="3">
         <v>30</v>
@@ -17770,10 +17778,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="E6" s="3">
         <v>30</v>
@@ -17799,13 +17807,13 @@
         <v>4</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="E7" s="3">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>46</v>
@@ -17828,10 +17836,10 @@
         <v>5</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E8" s="3">
         <v>30</v>
@@ -17857,13 +17865,13 @@
         <v>6</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="E9" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>46</v>
@@ -17886,10 +17894,10 @@
         <v>7</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E10" s="3">
         <v>30</v>

--- a/Excel/镇魂街/nsActivity.新服活动.xlsx
+++ b/Excel/镇魂街/nsActivity.新服活动.xlsx
@@ -271,10 +271,6 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>已累计：%d</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>寄灵人抽卡券</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -312,6 +308,10 @@
   </si>
   <si>
     <t>神器进阶</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>神秘寄灵人</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -17456,7 +17456,7 @@
         <v>50</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H5" s="3">
         <v>1</v>
@@ -17504,7 +17504,7 @@
         <v>50</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H7" s="3">
         <v>1</v>
@@ -17552,7 +17552,7 @@
         <v>50</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H9" s="3">
         <v>2</v>
@@ -17600,7 +17600,7 @@
         <v>50</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H11" s="3">
         <v>2</v>
@@ -17617,7 +17617,7 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -17749,10 +17749,10 @@
         <v>2</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>66</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>67</v>
       </c>
       <c r="E5" s="3">
         <v>30</v>
@@ -17778,10 +17778,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>68</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>69</v>
       </c>
       <c r="E6" s="3">
         <v>30</v>
@@ -17807,10 +17807,10 @@
         <v>4</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E7" s="3">
         <v>30</v>
@@ -17865,10 +17865,10 @@
         <v>6</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E9" s="3">
         <v>5</v>
@@ -17894,7 +17894,7 @@
         <v>7</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>55</v>

--- a/Excel/镇魂街/nsActivity.新服活动.xlsx
+++ b/Excel/镇魂街/nsActivity.新服活动.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="77">
   <si>
     <t>sheet名</t>
   </si>
@@ -210,12 +210,6 @@
     <t>中级神器1配件1</t>
   </si>
   <si>
-    <t>中级神器1配件2</t>
-  </si>
-  <si>
-    <t>中级神器1配件3</t>
-  </si>
-  <si>
     <t>Minute</t>
   </si>
   <si>
@@ -287,10 +281,6 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>战斗夏玲</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>战斗夏玲碎片</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -312,6 +302,30 @@
   </si>
   <si>
     <t>神秘寄灵人</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗夏铃</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>中级神器1配件2</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>中级神器1配件3</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>中级神器1配件4</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>中级神器2配件3</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>中级神器2配件4</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -985,7 +999,7 @@
     </row>
     <row r="8" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3" t="s">
@@ -17043,7 +17057,7 @@
         <v>2000</v>
       </c>
       <c r="B2003" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -17056,8 +17070,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -17184,10 +17198,14 @@
         <v>47</v>
       </c>
       <c r="F5" s="3">
-        <v>50</v>
-      </c>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
+        <v>100</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H5" s="3">
+        <v>5</v>
+      </c>
     </row>
     <row r="6" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
@@ -17206,13 +17224,13 @@
         <v>47</v>
       </c>
       <c r="F6" s="3">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="H6" s="3">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
@@ -17232,10 +17250,14 @@
         <v>47</v>
       </c>
       <c r="F7" s="3">
-        <v>50</v>
-      </c>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
+        <v>200</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="H7" s="3">
+        <v>5</v>
+      </c>
     </row>
     <row r="8" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
@@ -17254,13 +17276,13 @@
         <v>47</v>
       </c>
       <c r="F8" s="3">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>49</v>
+        <v>74</v>
       </c>
       <c r="H8" s="3">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
@@ -17280,10 +17302,14 @@
         <v>47</v>
       </c>
       <c r="F9" s="3">
-        <v>50</v>
-      </c>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
+        <v>300</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="H9" s="3">
+        <v>5</v>
+      </c>
     </row>
     <row r="10" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
@@ -17302,13 +17328,13 @@
         <v>47</v>
       </c>
       <c r="F10" s="3">
-        <v>50</v>
+        <v>400</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>50</v>
+        <v>76</v>
       </c>
       <c r="H10" s="3">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -17341,7 +17367,7 @@
         <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>30</v>
@@ -17393,7 +17419,7 @@
         <v>38</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>40</v>
@@ -17456,7 +17482,7 @@
         <v>50</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H5" s="3">
         <v>1</v>
@@ -17504,7 +17530,7 @@
         <v>50</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H7" s="3">
         <v>1</v>
@@ -17552,7 +17578,7 @@
         <v>50</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H9" s="3">
         <v>2</v>
@@ -17600,7 +17626,7 @@
         <v>50</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H11" s="3">
         <v>2</v>
@@ -17616,8 +17642,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -17634,10 +17660,10 @@
         <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>30</v>
@@ -17666,7 +17692,7 @@
         <v>26</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D2" t="s">
         <v>36</v>
@@ -17692,10 +17718,10 @@
         <v>38</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>44</v>
@@ -17724,7 +17750,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>47</v>
@@ -17749,10 +17775,10 @@
         <v>2</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E5" s="3">
         <v>30</v>
@@ -17778,10 +17804,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E6" s="3">
         <v>30</v>
@@ -17807,10 +17833,10 @@
         <v>4</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E7" s="3">
         <v>30</v>
@@ -17836,10 +17862,10 @@
         <v>5</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E8" s="3">
         <v>30</v>
@@ -17865,10 +17891,10 @@
         <v>6</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E9" s="3">
         <v>5</v>
@@ -17894,10 +17920,10 @@
         <v>7</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E10" s="3">
         <v>30</v>
